--- a/data/trans_dic/P16A13-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A13-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.02930700500860564</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.05183873478546261</v>
+        <v>0.05183873478546262</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.02786468146338193</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01235639110269425</v>
+        <v>0.00980715208488395</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03633173577225823</v>
+        <v>0.03740236558253666</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01358056311697351</v>
+        <v>0.01360382658535579</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0299349837425068</v>
+        <v>0.0311746041012078</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01114712166590917</v>
+        <v>0.01218178022210578</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04279008034060884</v>
+        <v>0.03904842812247336</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.05396552188276502</v>
+        <v>0.05138804539810867</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02697287203858385</v>
+        <v>0.02893958474936905</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0156085372888164</v>
+        <v>0.01498479967311645</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.04538100265110116</v>
+        <v>0.04500117132933686</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.0366195022528811</v>
+        <v>0.03873107493554311</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.03217074638018064</v>
+        <v>0.03488692350291232</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0536453856211544</v>
+        <v>0.05070953983136214</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1035177614164899</v>
+        <v>0.1056999098312537</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05478569055119637</v>
+        <v>0.05231311579454154</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.08154698681984746</v>
+        <v>0.08542738084024433</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.05567887431820481</v>
+        <v>0.05553349580834324</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1026779033714758</v>
+        <v>0.1001453023935408</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1202186650549283</v>
+        <v>0.1182412910664609</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.06279936137230867</v>
+        <v>0.06103594736840551</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0451340551515586</v>
+        <v>0.04343387325686901</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.09273146700828688</v>
+        <v>0.09098330287162262</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.07842604894008048</v>
+        <v>0.0794359687224168</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.06490113692975251</v>
+        <v>0.06691171036402471</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02059309541918468</v>
+        <v>0.02012904421405366</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03609204086735628</v>
+        <v>0.0347153985136826</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01096761558586224</v>
+        <v>0.0116128693636264</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01346419376518555</v>
+        <v>0.0126166261545451</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0230512291473201</v>
+        <v>0.0216750906605274</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04144719869055795</v>
+        <v>0.04256147642667184</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.007476660225116442</v>
+        <v>0.007514369080193851</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0195590350262396</v>
+        <v>0.02127590285180735</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02573686030598626</v>
+        <v>0.02628006600284142</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.04260394499717455</v>
+        <v>0.0431705285322346</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01202580987403959</v>
+        <v>0.01211380658110123</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01951895789147455</v>
+        <v>0.02086235778657135</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05490128631148621</v>
+        <v>0.05394029595675365</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.07367933373276515</v>
+        <v>0.07428521675743013</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03804268332406394</v>
+        <v>0.03970766448513335</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04590260900745036</v>
+        <v>0.04301202804337067</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05640157931367178</v>
+        <v>0.05671841126183182</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.08474369963698797</v>
+        <v>0.08458584706076103</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03232678881465644</v>
+        <v>0.03074847537453636</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04711994452969005</v>
+        <v>0.04969730864371422</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04949923668705582</v>
+        <v>0.04942857741221171</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.07341590814796721</v>
+        <v>0.0733372058090889</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03026257559478244</v>
+        <v>0.02978700871929461</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03978552967963576</v>
+        <v>0.04039016184953668</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.006046920478482353</v>
+        <v>0.006039289949361144</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01818819028427399</v>
+        <v>0.01840905451095664</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.00713178362331115</v>
+        <v>0.008641374159969035</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.07998263385595449</v>
+        <v>0.07753490083690207</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01828264106735513</v>
+        <v>0.02039542498069488</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02388121080729461</v>
+        <v>0.02210458821453051</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.006500444862989089</v>
+        <v>0.006725465660483146</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1336797713252181</v>
+        <v>0.1362316959427543</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01583504763947365</v>
+        <v>0.01545734313795364</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02520787702467365</v>
+        <v>0.02468876300672683</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.009865010074531038</v>
+        <v>0.01052959315308574</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.118202271080445</v>
+        <v>0.1173996832557564</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03384041480670639</v>
+        <v>0.03375065189705186</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06959239032594551</v>
+        <v>0.07005687495379456</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03986213811613444</v>
+        <v>0.04022772118557943</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1465941105680626</v>
+        <v>0.1426666572104143</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.06138258120743424</v>
+        <v>0.06123016887642463</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.0660919654497614</v>
+        <v>0.06456641160955051</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.04003085614070952</v>
+        <v>0.03750200715309599</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1927217139105779</v>
+        <v>0.1952546880764606</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0412477418538681</v>
+        <v>0.04084665777737723</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.057883350041219</v>
+        <v>0.05800307230890582</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03249111274424483</v>
+        <v>0.03177373953476798</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.161832602412315</v>
+        <v>0.1617778348582337</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.04524380624690921</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.06301601117845684</v>
+        <v>0.06301601117845683</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.04209862320766705</v>
@@ -1093,7 +1093,7 @@
         <v>0.07720041369594365</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.09829564479931234</v>
+        <v>0.09829564479931237</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.03135868057692796</v>
@@ -1105,7 +1105,7 @@
         <v>0.06158754989416781</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.0817388380624982</v>
+        <v>0.08173883806249818</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.008709845694461631</v>
+        <v>0.007994928163288754</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.008389386544293751</v>
+        <v>0.01015570389771871</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02605366062739186</v>
+        <v>0.02626029169400133</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04293205487709402</v>
+        <v>0.04297365635249482</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02469241698232217</v>
+        <v>0.02512818522124078</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.05485752990263323</v>
+        <v>0.05514527754899174</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04771356861556848</v>
+        <v>0.05247883272741715</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.07771007475225897</v>
+        <v>0.07717470060494626</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02054242836675567</v>
+        <v>0.02141411499473154</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03721981815207906</v>
+        <v>0.03683741291283588</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.04344399278268974</v>
+        <v>0.04400071117221423</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.06734748230746351</v>
+        <v>0.06770542473083418</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04169860269545681</v>
+        <v>0.04069717001087841</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0461882317273813</v>
+        <v>0.04685486587157791</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0774174956747954</v>
+        <v>0.07043734301514917</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.09596217050780989</v>
+        <v>0.09388955298411263</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.0631453775242998</v>
+        <v>0.06500887194622657</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1087569058088797</v>
+        <v>0.1084193567695575</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1116797425973132</v>
+        <v>0.1133759120944889</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1220211146535557</v>
+        <v>0.1243101561782862</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04522840536624401</v>
+        <v>0.04631502033076271</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.07059463669473728</v>
+        <v>0.06844999872013846</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.08283740945227132</v>
+        <v>0.0836047284902544</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1019489675968114</v>
+        <v>0.1016253033887813</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.01435712451520621</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1250684865474301</v>
+        <v>0.12506848654743</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.03991648660570588</v>
@@ -1241,7 +1241,7 @@
         <v>0.02356999565924713</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.1648087773046152</v>
+        <v>0.1648087773046151</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.00569837502836497</v>
+        <v>0.004382837692749247</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04519849698131804</v>
+        <v>0.0457816611023162</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.00445126130030123</v>
+        <v>0.004472774120677253</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.09130853177126105</v>
+        <v>0.09401117766557782</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01808210909159062</v>
+        <v>0.01919244598956719</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04006952369507564</v>
+        <v>0.03976061510911492</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01404707967553894</v>
+        <v>0.0137313297813767</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1680638556350725</v>
+        <v>0.1665246256538805</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01672775766146399</v>
+        <v>0.01547500987434826</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.05120321652082888</v>
+        <v>0.05009487491646092</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01170517920147972</v>
+        <v>0.01145944923603452</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1421309928417948</v>
+        <v>0.1410091865685137</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04905186239835969</v>
+        <v>0.04600690534981346</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1222447630164452</v>
+        <v>0.1228203090184823</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03862190161878393</v>
+        <v>0.03796310417728134</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1633817101254316</v>
+        <v>0.165304738754748</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07358613690836766</v>
+        <v>0.07729238966469433</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.120143082339099</v>
+        <v>0.1167056394303796</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.06103000963168626</v>
+        <v>0.06083211135605354</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2378717223441427</v>
+        <v>0.238662940989652</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.05048535138252461</v>
+        <v>0.05149353446238101</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1011086700968048</v>
+        <v>0.103283408481004</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.04051843428898994</v>
+        <v>0.0403111052885536</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1925553236195821</v>
+        <v>0.1923449547292133</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.02387338534361632</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.1584692465764616</v>
+        <v>0.1584692465764615</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.03059855937451971</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.006999787415409926</v>
+        <v>0.007072387113933125</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02860113882666136</v>
+        <v>0.02833520328246937</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01380064089976085</v>
+        <v>0.01405379716580817</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1077172229408613</v>
+        <v>0.1096939904607603</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.02309948379385785</v>
+        <v>0.02302298973298519</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.02046011754546731</v>
+        <v>0.02045076982754945</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.008837951559485671</v>
+        <v>0.008195917199392947</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1261749734233874</v>
+        <v>0.1317446177859479</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.01868685320488559</v>
+        <v>0.01876064404244595</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.02894539687395629</v>
+        <v>0.03117697417836827</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.01651701618924725</v>
+        <v>0.01563085931961626</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1261593908464217</v>
+        <v>0.1260082149096958</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03803050826736671</v>
+        <v>0.04398651690313379</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.08343908675853294</v>
+        <v>0.09030572163129104</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.0586839349458507</v>
+        <v>0.05492766149604459</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1732974685960007</v>
+        <v>0.1757021323824048</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.07170875552177076</v>
+        <v>0.07027757697377529</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.06454237085698114</v>
+        <v>0.06981432515452178</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.04821694367996375</v>
+        <v>0.04969834288135679</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1907003671243071</v>
+        <v>0.1919497311196589</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.04895151632672878</v>
+        <v>0.04840857203355212</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.06785950709723912</v>
+        <v>0.06884749792301148</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.04415726064026286</v>
+        <v>0.04480561438841987</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1706989973399883</v>
+        <v>0.1714540357660465</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.04410877690114354</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.07441676436859626</v>
+        <v>0.07441676436859627</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01885963880282231</v>
+        <v>0.01831704312487471</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02282140615148275</v>
+        <v>0.02196326501607312</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02564805910152387</v>
+        <v>0.0249056243561293</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.04372447562372404</v>
+        <v>0.04132523755956227</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.03230583425079971</v>
+        <v>0.03145148774902943</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.03544647488162414</v>
+        <v>0.03659221819108557</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.03392412243751747</v>
+        <v>0.03268780755692443</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.07411743779200904</v>
+        <v>0.07257558585939236</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.03057577203456713</v>
+        <v>0.02898272157128868</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.03333554840993297</v>
+        <v>0.03280092863072637</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.03318886224668167</v>
+        <v>0.03214250881370559</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.06298550765840381</v>
+        <v>0.06296698622327279</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.04784790618858706</v>
+        <v>0.05001815791561834</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05306121189077718</v>
+        <v>0.0541393806183724</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.06051181235468417</v>
+        <v>0.05635342798845081</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.07898145080158742</v>
+        <v>0.07555268748823551</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.06353327489289748</v>
+        <v>0.06385556020755853</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.07269694632395489</v>
+        <v>0.07245233964477964</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.07122346071955472</v>
+        <v>0.06872565725061193</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1091461601306906</v>
+        <v>0.1062612125648891</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.05197285947683281</v>
+        <v>0.05120971314786937</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.05753945820062102</v>
+        <v>0.05597382990576914</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.05697160473101006</v>
+        <v>0.05787911899894906</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.08838595601777385</v>
+        <v>0.08753996162523008</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.03319768147462789</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.0306858080135221</v>
+        <v>0.03068580801352211</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.02617117196391397</v>
@@ -1649,7 +1649,7 @@
         <v>0.02986426404154952</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.03281070984665995</v>
+        <v>0.03281070984665996</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01973995789542439</v>
+        <v>0.01899430018842469</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.01526958103563809</v>
+        <v>0.0165629979429201</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01486911080585486</v>
+        <v>0.01534551527808215</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.02431906133708384</v>
+        <v>0.02407597348421417</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.01356620767474455</v>
+        <v>0.01422264085447891</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.02744048378450402</v>
+        <v>0.0285884497978228</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.0217673639912114</v>
+        <v>0.02118012628091478</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.02180366485007532</v>
+        <v>0.02120302537938408</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.01885449260527277</v>
+        <v>0.01924812555613682</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.02461975935987383</v>
+        <v>0.02479894302176703</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.02231795291533278</v>
+        <v>0.02158570085155267</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.02572522704635601</v>
+        <v>0.02551536531540739</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.04472771596280485</v>
+        <v>0.04362070214196179</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.04234553208419881</v>
+        <v>0.0426259186090903</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.04077734982473546</v>
+        <v>0.04012016386740923</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.04963065497865717</v>
+        <v>0.04783890242494246</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.03631317545691914</v>
+        <v>0.03587250434375206</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.0562874365053059</v>
+        <v>0.05947899689973937</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.04839571374128779</v>
+        <v>0.0506603390667503</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.04141226136922303</v>
+        <v>0.0406045279588714</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.03530435647901351</v>
+        <v>0.03525154800880398</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.043708791195018</v>
+        <v>0.04331691687593282</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.04140388864837302</v>
+        <v>0.03958460400112004</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.04141054902374378</v>
+        <v>0.04084322113668885</v>
       </c>
     </row>
     <row r="28">
@@ -1773,7 +1773,7 @@
         <v>0.04055174480053273</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.08377960606340872</v>
+        <v>0.08377960606340873</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.03126609310876499</v>
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.02139506969541165</v>
+        <v>0.02159167173352537</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.0344888259280832</v>
+        <v>0.03415280071712933</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.0239636136741377</v>
+        <v>0.02424248513943077</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.05563812536198146</v>
+        <v>0.05560020018748175</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.0300568579742511</v>
+        <v>0.02958611464338556</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.04580846032075054</v>
+        <v>0.04697211446203831</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.03292580923295755</v>
+        <v>0.03403479737855798</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.07682931801883078</v>
+        <v>0.0772519380729757</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.02722938413961876</v>
+        <v>0.02689977386107404</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.04232422446535741</v>
+        <v>0.04220513176260249</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.03054788591089036</v>
+        <v>0.03074848681500247</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.06839998696588194</v>
+        <v>0.06802977430701894</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.0333456897099232</v>
+        <v>0.03283219483305003</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.04933050139301037</v>
+        <v>0.04939892013606369</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.03597046205924723</v>
+        <v>0.03584970607346078</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.07045631766228219</v>
+        <v>0.07039514376320433</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.04236896210187479</v>
+        <v>0.04269586779432826</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.06247988093876546</v>
+        <v>0.06329534394806151</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.04711529565979443</v>
+        <v>0.04798415050855793</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.09062743622736577</v>
+        <v>0.09086544813709552</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.03520760302642681</v>
+        <v>0.03590966422165227</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.05273303213355225</v>
+        <v>0.0529046607918035</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.03971582929541085</v>
+        <v>0.04029057894786873</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.07828365837467685</v>
+        <v>0.07826262670632074</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3373</v>
+        <v>2677</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>10544</v>
+        <v>10854</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3989</v>
+        <v>3996</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>9545</v>
+        <v>9940</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2908</v>
+        <v>3177</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>12036</v>
+        <v>10984</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>15580</v>
+        <v>14836</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>8525</v>
+        <v>9147</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>8333</v>
+        <v>8000</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>25934</v>
+        <v>25717</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>21330</v>
+        <v>22559</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>20425</v>
+        <v>22150</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>14646</v>
+        <v>13844</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>30041</v>
+        <v>30674</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>16094</v>
+        <v>15368</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>26001</v>
+        <v>27238</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>14523</v>
+        <v>14485</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>28881</v>
+        <v>28169</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>34707</v>
+        <v>34137</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>19848</v>
+        <v>19291</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>24095</v>
+        <v>23187</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>52994</v>
+        <v>51995</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>45680</v>
+        <v>46269</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>41206</v>
+        <v>42483</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>10154</v>
+        <v>9925</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>18246</v>
+        <v>17550</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>5512</v>
+        <v>5836</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>7131</v>
+        <v>6683</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>11617</v>
+        <v>10923</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>21666</v>
+        <v>22248</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>3911</v>
+        <v>3931</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>10664</v>
+        <v>11600</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>25660</v>
+        <v>26202</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>43808</v>
+        <v>44390</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>12334</v>
+        <v>12425</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>20980</v>
+        <v>22424</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>27070</v>
+        <v>26597</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>37247</v>
+        <v>37553</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>19119</v>
+        <v>19956</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>24313</v>
+        <v>22782</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>28424</v>
+        <v>28583</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>44298</v>
+        <v>44216</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>16910</v>
+        <v>16084</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>25690</v>
+        <v>27096</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>49352</v>
+        <v>49281</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>75490</v>
+        <v>75410</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>31039</v>
+        <v>30551</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>42764</v>
+        <v>43414</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>5877</v>
+        <v>5948</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2272</v>
+        <v>2753</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>25274</v>
+        <v>24500</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>6132</v>
+        <v>6841</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>8144</v>
+        <v>7538</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>2186</v>
+        <v>2262</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>47641</v>
+        <v>48550</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>10360</v>
+        <v>10113</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>16741</v>
+        <v>16397</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>6460</v>
+        <v>6896</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>79476</v>
+        <v>78937</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>10790</v>
+        <v>10761</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>22486</v>
+        <v>22636</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>12699</v>
+        <v>12815</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>46323</v>
+        <v>45082</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>20588</v>
+        <v>20537</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>22539</v>
+        <v>22018</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>13463</v>
+        <v>12612</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>68682</v>
+        <v>69585</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>26987</v>
+        <v>26724</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>38442</v>
+        <v>38522</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>21278</v>
+        <v>20808</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>108812</v>
+        <v>108775</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3124</v>
+        <v>2868</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3137</v>
+        <v>3798</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>9639</v>
+        <v>9715</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>16020</v>
+        <v>16035</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>9172</v>
+        <v>9334</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>21283</v>
+        <v>21395</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>18479</v>
+        <v>20324</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>32791</v>
+        <v>32565</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>14999</v>
+        <v>15635</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>28360</v>
+        <v>28068</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>32898</v>
+        <v>33319</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>53548</v>
+        <v>53833</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>14956</v>
+        <v>14597</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>17274</v>
+        <v>17523</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>28642</v>
+        <v>26059</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>35808</v>
+        <v>35034</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>23456</v>
+        <v>24148</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>42195</v>
+        <v>42064</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>43252</v>
+        <v>43909</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>51488</v>
+        <v>52454</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>33022</v>
+        <v>33816</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>53790</v>
+        <v>52156</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>62728</v>
+        <v>63309</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>81060</v>
+        <v>80803</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1159</v>
+        <v>891</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>9610</v>
+        <v>9734</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>940</v>
+        <v>945</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>18779</v>
+        <v>19335</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>3755</v>
+        <v>3986</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>8799</v>
+        <v>8731</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>3071</v>
+        <v>3001</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>38187</v>
+        <v>37837</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>6875</v>
+        <v>6360</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>22130</v>
+        <v>21651</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>5031</v>
+        <v>4925</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>61526</v>
+        <v>61040</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>9973</v>
+        <v>9354</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>25991</v>
+        <v>26114</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>8158</v>
+        <v>8019</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>33602</v>
+        <v>33997</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>15281</v>
+        <v>16051</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>26382</v>
+        <v>25628</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>13340</v>
+        <v>13297</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>54048</v>
+        <v>54228</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>20748</v>
+        <v>21163</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>43700</v>
+        <v>44640</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>17415</v>
+        <v>17326</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>83353</v>
+        <v>83262</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1896</v>
+        <v>1915</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>7836</v>
+        <v>7763</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>3631</v>
+        <v>3698</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>29160</v>
+        <v>29695</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>6425</v>
+        <v>6404</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>5711</v>
+        <v>5709</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>2414</v>
+        <v>2238</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>33279</v>
+        <v>34748</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>10258</v>
+        <v>10299</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>16010</v>
+        <v>17245</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>8857</v>
+        <v>8382</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>67427</v>
+        <v>67346</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>10299</v>
+        <v>11912</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>22861</v>
+        <v>24742</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>15441</v>
+        <v>14453</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>46913</v>
+        <v>47564</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>19945</v>
+        <v>19547</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>18016</v>
+        <v>19488</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>13169</v>
+        <v>13573</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>50297</v>
+        <v>50627</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>26872</v>
+        <v>26574</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>37535</v>
+        <v>38081</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>23679</v>
+        <v>24026</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>91231</v>
+        <v>91635</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>11599</v>
+        <v>11265</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>15074</v>
+        <v>14507</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>16839</v>
+        <v>16352</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>31468</v>
+        <v>29741</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>20618</v>
+        <v>20073</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>24595</v>
+        <v>25390</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>23452</v>
+        <v>22597</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>57223</v>
+        <v>56032</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>38319</v>
+        <v>36322</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>45149</v>
+        <v>44425</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>44734</v>
+        <v>43323</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>93958</v>
+        <v>93931</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>29428</v>
+        <v>30763</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>35048</v>
+        <v>35760</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>39730</v>
+        <v>36999</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>56842</v>
+        <v>54374</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>40548</v>
+        <v>40754</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>50441</v>
+        <v>50271</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>49236</v>
+        <v>47510</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>84267</v>
+        <v>82040</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>65135</v>
+        <v>64178</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>77930</v>
+        <v>75809</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>76789</v>
+        <v>78012</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>131849</v>
+        <v>130587</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>14662</v>
+        <v>14109</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>11847</v>
+        <v>12851</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>11577</v>
+        <v>11948</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>19408</v>
+        <v>19214</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>10629</v>
+        <v>11144</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>22543</v>
+        <v>23486</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>17983</v>
+        <v>17498</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>18097</v>
+        <v>17599</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>28777</v>
+        <v>29378</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>39328</v>
+        <v>39614</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>35815</v>
+        <v>34640</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>41883</v>
+        <v>41541</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>33223</v>
+        <v>32400</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>32855</v>
+        <v>33073</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>31749</v>
+        <v>31237</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>39609</v>
+        <v>38179</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>28452</v>
+        <v>28107</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>46241</v>
+        <v>48863</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>39983</v>
+        <v>41854</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>34372</v>
+        <v>33702</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>53885</v>
+        <v>53804</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>69821</v>
+        <v>69195</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>66443</v>
+        <v>63523</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>67420</v>
+        <v>66496</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>70080</v>
+        <v>70724</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>117808</v>
+        <v>116660</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>81341</v>
+        <v>82287</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>196501</v>
+        <v>196367</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>101568</v>
+        <v>99977</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>162488</v>
+        <v>166615</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>116707</v>
+        <v>120638</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>286777</v>
+        <v>288354</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>181204</v>
+        <v>179011</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>294701</v>
+        <v>293872</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>211968</v>
+        <v>213360</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>496886</v>
+        <v>494197</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>109225</v>
+        <v>107543</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>168504</v>
+        <v>168738</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>122096</v>
+        <v>121686</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>248836</v>
+        <v>248620</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>143173</v>
+        <v>144278</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>221623</v>
+        <v>224516</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>167002</v>
+        <v>170082</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>338280</v>
+        <v>339168</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>234297</v>
+        <v>238969</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>367177</v>
+        <v>368372</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>275584</v>
+        <v>279572</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>568685</v>
+        <v>568533</v>
       </c>
     </row>
     <row r="40">
